--- a/biology/Zoologie/Comadia_redtenbacheri/Comadia_redtenbacheri.xlsx
+++ b/biology/Zoologie/Comadia_redtenbacheri/Comadia_redtenbacheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comadia redtenbacheri est un papillon de nuit de la famille des Cossidae. C'est un parasite de l'agave, répandu en Amérique du Nord du Mexique au sud du Texas. Elle est connue au Mexique sous les termes chilocuil, chinicuil ou tecol.
 La chenille de ce papillon est mise dans les bouteilles les producteurs de mezcal pour le différencier du tequila, il s'agit d'une astuce commerciale remontant aux années 1940 et non d'une tradition locale.
@@ -514,7 +526,9 @@
           <t>Larves</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jadis on utilisait aussi ces insectes pour la consommation dans les zones rurales à défaut de viande[Information douteuse] , mais l'arrivée des insecticides ayant quasiment fait disparaître cet insecte qui était un fléau, cet usage avait presque disparu, restant confidentiel dans des régions reculées du pays.[réf. nécessaire] 
 Durant leur cycle naturel, les larves forment une chrysalide en septembre, de laquelle émergent les adultes au bout de 60 jours.
@@ -547,7 +561,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Zeuzera redtenbacheri Hammerschmidt, 1848
 Hypopta agavis Blásquez, 1870
